--- a/nr-update-menu/ig/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
+++ b/nr-update-menu/ig/StructureDefinition-ror-healthcareservice-no-consent-habilitation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:08+00:00</t>
+    <t>2024-07-09T09:20:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
